--- a/SuppXLS/Scen_PWR_PEAK_RESERVE.xlsx
+++ b/SuppXLS/Scen_PWR_PEAK_RESERVE.xlsx
@@ -5,73 +5,77 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-Ireland-model\main\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A00F31-03CB-47FE-9C3F-E15E2580B944}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D2185C-75CC-4ED7-AB53-16067EEA9CAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8790" yWindow="7410" windowWidth="42165" windowHeight="23985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3233" yWindow="8002" windowWidth="20716" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="INS" sheetId="2" r:id="rId1"/>
+    <sheet name="Regions" sheetId="3" r:id="rId1"/>
+    <sheet name="INS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Maurizio Gargiulo</author>
-    <author>Gary Goldstein</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Insert Table</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -103,9 +107,6 @@
     <t>TimeSlice</t>
   </si>
   <si>
-    <t>AllRegions</t>
-  </si>
-  <si>
     <t>Pset_PD</t>
   </si>
   <si>
@@ -128,13 +129,213 @@
   </si>
   <si>
     <t>ELCC</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Single-region</t>
+  </si>
+  <si>
+    <t>Multi-region</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>County name</t>
+  </si>
+  <si>
+    <t>IE-CW</t>
+  </si>
+  <si>
+    <t>Carlow</t>
+  </si>
+  <si>
+    <t>IE-CN</t>
+  </si>
+  <si>
+    <t>Cavan</t>
+  </si>
+  <si>
+    <t>IE-CE</t>
+  </si>
+  <si>
+    <t>Clare</t>
+  </si>
+  <si>
+    <t>IE-CO</t>
+  </si>
+  <si>
+    <t>Cork</t>
+  </si>
+  <si>
+    <t>IE-DL</t>
+  </si>
+  <si>
+    <t>Donegal</t>
+  </si>
+  <si>
+    <t>IE-D</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>IE-G</t>
+  </si>
+  <si>
+    <t>Galway</t>
+  </si>
+  <si>
+    <t>IE-KY</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>IE-KE</t>
+  </si>
+  <si>
+    <t>Kildare</t>
+  </si>
+  <si>
+    <t>IE-KK</t>
+  </si>
+  <si>
+    <t>Kilkenny</t>
+  </si>
+  <si>
+    <t>IE-LS</t>
+  </si>
+  <si>
+    <t>Laois</t>
+  </si>
+  <si>
+    <t>IE-LM</t>
+  </si>
+  <si>
+    <t>Leitrim</t>
+  </si>
+  <si>
+    <t>IE-LK</t>
+  </si>
+  <si>
+    <t>Limerick</t>
+  </si>
+  <si>
+    <t>IE-LD</t>
+  </si>
+  <si>
+    <t>Longford</t>
+  </si>
+  <si>
+    <t>IE-LH</t>
+  </si>
+  <si>
+    <t>Louth</t>
+  </si>
+  <si>
+    <t>IE-MO</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>IE-MH</t>
+  </si>
+  <si>
+    <t>Meath</t>
+  </si>
+  <si>
+    <t>IE-MN</t>
+  </si>
+  <si>
+    <t>Monaghan</t>
+  </si>
+  <si>
+    <t>IE-OY</t>
+  </si>
+  <si>
+    <t>Offaly</t>
+  </si>
+  <si>
+    <t>IE-RN</t>
+  </si>
+  <si>
+    <t>Roscommon</t>
+  </si>
+  <si>
+    <t>IE-SO</t>
+  </si>
+  <si>
+    <t>Sligo</t>
+  </si>
+  <si>
+    <t>IE-TA</t>
+  </si>
+  <si>
+    <t>Tipperary</t>
+  </si>
+  <si>
+    <t>IE-WD</t>
+  </si>
+  <si>
+    <t>Waterford</t>
+  </si>
+  <si>
+    <t>IE-WH</t>
+  </si>
+  <si>
+    <t>Westmeath</t>
+  </si>
+  <si>
+    <t>IE-WX</t>
+  </si>
+  <si>
+    <t>Wexford</t>
+  </si>
+  <si>
+    <t>IE-WW</t>
+  </si>
+  <si>
+    <t>Wicklow</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Source: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://en.wikipedia.org/wiki/ISO_3166-2:IE</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,19 +369,14 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +395,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -219,13 +427,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -237,6 +493,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -254,6 +521,102 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="39" fmlaLink="$A$4" fmlaRange="$A$5:$A$7" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Drop Down 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FDECF69-65EE-4468-A3E1-E0AE4B48E8CA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Regions"/>
+      <sheetName val="SRV"/>
+      <sheetName val="PWR"/>
+      <sheetName val="UPD_biogas"/>
+      <sheetName val="UCT_biogas"/>
+      <sheetName val="RSD"/>
+      <sheetName val="DataFill"/>
+      <sheetName val="RSDAFC"/>
+      <sheetName val="RSDAFA"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,11 +939,776 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95467C4E-A3B5-41C1-A499-A787B2AA33A3}">
+  <dimension ref="A3:AD37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="str" cm="1">
+        <f t="array" ref="C3">IF(LEFT(INDEX(C5:C7,$A$4),1)&lt;&gt;"*",INDEX(C5:C7,$A$4),"")</f>
+        <v>IE</v>
+      </c>
+      <c r="D3" s="7" t="str" cm="1">
+        <f t="array" ref="D3">IF(LEFT(INDEX(D5:D7,$A$4),1)&lt;&gt;"*",INDEX(D5:D7,$A$4),"")</f>
+        <v>National</v>
+      </c>
+      <c r="E3" s="7" t="str" cm="1">
+        <f t="array" ref="E3">IF(LEFT(INDEX(E5:E7,$A$4),1)&lt;&gt;"*",INDEX(E5:E7,$A$4),"")</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F3" s="7" t="str" cm="1">
+        <f t="array" ref="F3">IF(LEFT(INDEX(F5:F7,$A$4),1)&lt;&gt;"*",INDEX(F5:F7,$A$4),"")</f>
+        <v>IE-D</v>
+      </c>
+      <c r="G3" s="7" t="str" cm="1">
+        <f t="array" ref="G3">IF(LEFT(INDEX(G5:G7,$A$4),1)&lt;&gt;"*",INDEX(G5:G7,$A$4),"")</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="H3" s="7" t="str" cm="1">
+        <f t="array" ref="H3">IF(LEFT(INDEX(H5:H7,$A$4),1)&lt;&gt;"*",INDEX(H5:H7,$A$4),"")</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="I3" s="7" t="str" cm="1">
+        <f t="array" ref="I3">IF(LEFT(INDEX(I5:I7,$A$4),1)&lt;&gt;"*",INDEX(I5:I7,$A$4),"")</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="J3" s="7" t="str" cm="1">
+        <f t="array" ref="J3">IF(LEFT(INDEX(J5:J7,$A$4),1)&lt;&gt;"*",INDEX(J5:J7,$A$4),"")</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="K3" s="7" t="str" cm="1">
+        <f t="array" ref="K3">IF(LEFT(INDEX(K5:K7,$A$4),1)&lt;&gt;"*",INDEX(K5:K7,$A$4),"")</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="L3" s="7" t="str" cm="1">
+        <f t="array" ref="L3">IF(LEFT(INDEX(L5:L7,$A$4),1)&lt;&gt;"*",INDEX(L5:L7,$A$4),"")</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="M3" s="7" t="str" cm="1">
+        <f t="array" ref="M3">IF(LEFT(INDEX(M5:M7,$A$4),1)&lt;&gt;"*",INDEX(M5:M7,$A$4),"")</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="N3" s="7" t="str" cm="1">
+        <f t="array" ref="N3">IF(LEFT(INDEX(N5:N7,$A$4),1)&lt;&gt;"*",INDEX(N5:N7,$A$4),"")</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="O3" s="7" t="str" cm="1">
+        <f t="array" ref="O3">IF(LEFT(INDEX(O5:O7,$A$4),1)&lt;&gt;"*",INDEX(O5:O7,$A$4),"")</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="P3" s="7" t="str" cm="1">
+        <f t="array" ref="P3">IF(LEFT(INDEX(P5:P7,$A$4),1)&lt;&gt;"*",INDEX(P5:P7,$A$4),"")</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q3" s="7" t="str" cm="1">
+        <f t="array" ref="Q3">IF(LEFT(INDEX(Q5:Q7,$A$4),1)&lt;&gt;"*",INDEX(Q5:Q7,$A$4),"")</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="R3" s="7" t="str" cm="1">
+        <f t="array" ref="R3">IF(LEFT(INDEX(R5:R7,$A$4),1)&lt;&gt;"*",INDEX(R5:R7,$A$4),"")</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="S3" s="7" t="str" cm="1">
+        <f t="array" ref="S3">IF(LEFT(INDEX(S5:S7,$A$4),1)&lt;&gt;"*",INDEX(S5:S7,$A$4),"")</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="T3" s="7" t="str" cm="1">
+        <f t="array" ref="T3">IF(LEFT(INDEX(T5:T7,$A$4),1)&lt;&gt;"*",INDEX(T5:T7,$A$4),"")</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="U3" s="7" t="str" cm="1">
+        <f t="array" ref="U3">IF(LEFT(INDEX(U5:U7,$A$4),1)&lt;&gt;"*",INDEX(U5:U7,$A$4),"")</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="V3" s="7" t="str" cm="1">
+        <f t="array" ref="V3">IF(LEFT(INDEX(V5:V7,$A$4),1)&lt;&gt;"*",INDEX(V5:V7,$A$4),"")</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="W3" s="7" t="str" cm="1">
+        <f t="array" ref="W3">IF(LEFT(INDEX(W5:W7,$A$4),1)&lt;&gt;"*",INDEX(W5:W7,$A$4),"")</f>
+        <v>IE-G</v>
+      </c>
+      <c r="X3" s="7" t="str" cm="1">
+        <f t="array" ref="X3">IF(LEFT(INDEX(X5:X7,$A$4),1)&lt;&gt;"*",INDEX(X5:X7,$A$4),"")</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y3" s="7" t="str" cm="1">
+        <f t="array" ref="Y3">IF(LEFT(INDEX(Y5:Y7,$A$4),1)&lt;&gt;"*",INDEX(Y5:Y7,$A$4),"")</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z3" s="7" t="str" cm="1">
+        <f t="array" ref="Z3">IF(LEFT(INDEX(Z5:Z7,$A$4),1)&lt;&gt;"*",INDEX(Z5:Z7,$A$4),"")</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA3" s="7" t="str" cm="1">
+        <f t="array" ref="AA3">IF(LEFT(INDEX(AA5:AA7,$A$4),1)&lt;&gt;"*",INDEX(AA5:AA7,$A$4),"")</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB3" s="7" t="str" cm="1">
+        <f t="array" ref="AB3">IF(LEFT(INDEX(AB5:AB7,$A$4),1)&lt;&gt;"*",INDEX(AB5:AB7,$A$4),"")</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC3" s="7" t="str" cm="1">
+        <f t="array" ref="AC3">IF(LEFT(INDEX(AC5:AC7,$A$4),1)&lt;&gt;"*",INDEX(AC5:AC7,$A$4),"")</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD3" s="7" t="str" cm="1">
+        <f t="array" ref="AD3">IF(LEFT(INDEX(AD5:AD7,$A$4),1)&lt;&gt;"*",INDEX(AD5:AD7,$A$4),"")</f>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="str">
+        <f>Regions!A11</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F5" s="7" t="str">
+        <f>Regions!A16</f>
+        <v>IE-D</v>
+      </c>
+      <c r="G5" s="7" t="str">
+        <f>Regions!A19</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="H5" s="7" t="str">
+        <f>Regions!A20</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>Regions!A21</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f>Regions!A24</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="K5" s="7" t="str">
+        <f>Regions!A25</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="L5" s="7" t="str">
+        <f>Regions!A27</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="M5" s="7" t="str">
+        <f>Regions!A29</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="N5" s="7" t="str">
+        <f>Regions!A34</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="O5" s="7" t="str">
+        <f>Regions!A35</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="P5" s="7" t="str">
+        <f>Regions!A36</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q5" s="7" t="str">
+        <f>Regions!A13</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="R5" s="7" t="str">
+        <f>Regions!A14</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="S5" s="7" t="str">
+        <f>Regions!A18</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="T5" s="7" t="str">
+        <f>Regions!A23</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="U5" s="7" t="str">
+        <f>Regions!A32</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="V5" s="7" t="str">
+        <f>Regions!A33</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="W5" s="7" t="str">
+        <f>Regions!A17</f>
+        <v>IE-G</v>
+      </c>
+      <c r="X5" s="7" t="str">
+        <f>Regions!A22</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y5" s="7" t="str">
+        <f>Regions!A26</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z5" s="7" t="str">
+        <f>Regions!A30</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA5" s="7" t="str">
+        <f>Regions!A31</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB5" s="7" t="str">
+        <f>Regions!A12</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC5" s="7" t="str">
+        <f>Regions!A15</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD5" s="7" t="str">
+        <f>Regions!A28</f>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7" t="str">
+        <f>C5</f>
+        <v>IE</v>
+      </c>
+      <c r="D6" s="7" t="str">
+        <f>IF(LEFT(D5,1)&lt;&gt;"*","*"&amp;D5,D5)</f>
+        <v>*National</v>
+      </c>
+      <c r="E6" s="7" t="str">
+        <f t="shared" ref="E6:AD6" si="0">IF(LEFT(E5,1)&lt;&gt;"*","*"&amp;E5,E5)</f>
+        <v>*IE-CW</v>
+      </c>
+      <c r="F6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-D</v>
+      </c>
+      <c r="G6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KE</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KK</v>
+      </c>
+      <c r="I6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LS</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LD</v>
+      </c>
+      <c r="K6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LH</v>
+      </c>
+      <c r="L6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MH</v>
+      </c>
+      <c r="M6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-OY</v>
+      </c>
+      <c r="N6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WH</v>
+      </c>
+      <c r="O6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WX</v>
+      </c>
+      <c r="P6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WW</v>
+      </c>
+      <c r="Q6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CE</v>
+      </c>
+      <c r="R6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CO</v>
+      </c>
+      <c r="S6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KY</v>
+      </c>
+      <c r="T6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LK</v>
+      </c>
+      <c r="U6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-TA</v>
+      </c>
+      <c r="V6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WD</v>
+      </c>
+      <c r="W6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-G</v>
+      </c>
+      <c r="X6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LM</v>
+      </c>
+      <c r="Y6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MO</v>
+      </c>
+      <c r="Z6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-RN</v>
+      </c>
+      <c r="AA6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-SO</v>
+      </c>
+      <c r="AB6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CN</v>
+      </c>
+      <c r="AC6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-DL</v>
+      </c>
+      <c r="AD6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>"*"&amp;C5</f>
+        <v>*IE</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>D5</f>
+        <v>National</v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f t="shared" ref="E7:AD7" si="1">E5</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-D</v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KE</v>
+      </c>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KK</v>
+      </c>
+      <c r="I7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LS</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LD</v>
+      </c>
+      <c r="K7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LH</v>
+      </c>
+      <c r="L7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MH</v>
+      </c>
+      <c r="M7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-OY</v>
+      </c>
+      <c r="N7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WH</v>
+      </c>
+      <c r="O7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WX</v>
+      </c>
+      <c r="P7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CE</v>
+      </c>
+      <c r="R7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CO</v>
+      </c>
+      <c r="S7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KY</v>
+      </c>
+      <c r="T7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LK</v>
+      </c>
+      <c r="U7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-TA</v>
+      </c>
+      <c r="V7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WD</v>
+      </c>
+      <c r="W7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-G</v>
+      </c>
+      <c r="X7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId4" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,123 +1720,140 @@
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>IF(Regions!C$3&lt;&gt;"",Regions!C$3,"*")</f>
+        <v>IE</v>
+      </c>
+      <c r="I4" s="5" t="str">
+        <f>IF(Regions!D$3&lt;&gt;"",Regions!D$3,"*")</f>
+        <v>National</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="E5">
         <v>0</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="I5">
+        <f>H5</f>
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
         <v>17</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>2018</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I7" si="0">H6</f>
+        <v>0.2</v>
+      </c>
+      <c r="P6" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>2018</v>
-      </c>
-      <c r="H5">
-        <v>0.2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>2050</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="P7" t="s">
         <v>17</v>
-      </c>
-      <c r="E6">
-        <v>2050</v>
-      </c>
-      <c r="H6">
-        <v>0.3</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>